--- a/Datos/Configuración 8 (SS)/ResultadosCSV/ResultadosCSV conf8.xlsx
+++ b/Datos/Configuración 8 (SS)/ResultadosCSV/ResultadosCSV conf8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JulianDavid\Desktop\Andes\Semestre VI\Infraestructura Computacional\Caso 3\srv202010-fuentes\Caso3_Infracomp_Servidor\Datos\Configuración 8 (SS)\ResultadosCSV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9993743-9126-4B01-AD98-F8B757B1BFBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BB2205-CFD9-4EF8-B593-9647C254D924}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{259101BD-830C-44D9-A3BA-75266E9E6834}"/>
   </bookViews>
@@ -86,7 +86,7 @@
     <t>Varianza</t>
   </si>
   <si>
-    <t>Desviación estandar</t>
+    <t>Desv. estandar</t>
   </si>
 </sst>
 </file>
@@ -109,15 +109,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -125,18 +137,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -170,2534 +201,13 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>[1]Sheet1!$J$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Uso CPU</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>[1]Sheet1!$H$6:$H$405</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="400"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>199</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>201</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>202</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>203</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>206</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>207</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>209</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>211</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>212</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>213</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>215</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>217</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>219</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>220</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>221</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>223</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>224</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>225</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>226</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>227</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>229</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>230</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>231</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>235</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>236</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>237</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>239</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>241</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>243</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>244</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>245</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>247</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>249</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>251</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>253</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>254</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>258</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>259</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>266</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>267</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>268</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>269</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>271</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>272</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>273</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>274</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>277</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>278</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>279</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>283</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>284</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>285</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>287</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>289</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>290</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>291</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>292</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>293</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>295</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>296</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>298</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>299</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>301</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>303</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>304</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>305</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>306</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>307</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>311</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>313</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>314</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>317</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>318</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>319</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>321</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>323</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>329</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>330</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>331</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>333</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>335</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>337</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>339</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>341</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>342</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>343</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>345</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>347</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>349</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>351</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>353</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>354</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>355</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>357</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>359</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>361</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>362</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>363</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>365</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>366</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>367</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>369</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>371</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>375</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>377</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>379</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>381</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>383</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>385</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>386</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>387</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>389</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>390</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>391</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>393</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>395</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>397</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>399</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>[1]Sheet1!$J$6:$J$405</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="400"/>
-                <c:pt idx="0">
-                  <c:v>0.77082582510789466</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.6453204142420822</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.49412666891256074</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50273959774653443</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.49099512862853217</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.39520666036943319</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.32409861427622233</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.22268847914535708</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.23901690360820146</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.24740472420392406</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.25033887252548248</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.24342202195333137</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.24060991338947818</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.23501448895413268</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.23587005848589815</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.2251001233520139</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.22554991970776953</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.22518567793157657</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.21516681112706931</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.25650013530349564</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24716450619003838</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.21607027056364189</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.24563146946292291</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.24759755999480795</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.24109861948643702</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.2543325652099715</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27554506830711212</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.27538314293100397</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.26536791110784891</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.21756743059450098</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.24810618776476062</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.20247067913781217</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.19701310245297543</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.18409314202208887</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.16346236886709359</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.20648603164335064</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.19604837074396367</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.19373346166778199</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.19550955977062556</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.2236964003440271</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.21723397660826133</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.2301753911100014</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.22421727267238889</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.2132201578018427</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.19900986298355341</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.18841977273408397</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.1772310648229739</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.17511601921217712</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.20029989302194193</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.19494056900351389</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.20676734207278721</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.24164947264357628</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.26017616552445122</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.26010201770392816</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.26816248138346621</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.24832757961818988</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.23058396335374801</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.19707458049353413</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.18989411390211738</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.1979909476205762</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.21863576396613932</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.25740411386143619</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.26222325059743262</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.25374687928893869</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.26389948793142953</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.2444239698790665</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.2319861017910694</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.23590300418303786</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.22399337900894958</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.2187987042421872</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.20698712794508725</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.18515776878675005</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.19486278067639773</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.18833933868559058</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.21774942185686297</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.21232902037570792</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.22795172201619474</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.23737212273555777</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.2016260874091455</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.190258997150624</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.1912018641937783</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.18352223536091336</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.200149120668872</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.19034362332651944</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.17889793538036033</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.1904324870776602</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.185076562020318</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.27527496119192468</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.26682547404913315</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.27512884558073014</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.3001898381721454</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.19226243151813172</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.22783041564015291</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.2020289007231941</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.20649186520933288</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.2116038019440187</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.22617586287213304</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.2454090121549195</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.25109724035852199</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.24357858452635089</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.26628331455073295</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.24399702432308057</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.22561151595370568</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.22692080275484919</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.1848498238318379</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.18512751333526439</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.19212705465417831</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.2039725729572551</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.21948400437198617</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.22103026018205138</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.24058597724202291</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.23791086274983558</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.22501378865857777</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.24837122002032908</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.23001360016141401</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.1914634665357822</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.20242893268995238</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.19101252693262738</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.18457719963041674</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.19768682619310482</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.19952428397780042</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.2255291320169496</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.21509687198522198</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.21178868426313449</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.21088355703686518</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.21681843598633979</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.21072416797559901</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.20934351742928772</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.19139117886470777</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.18639024239858468</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.19745877980332671</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.18637954972102858</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.19699624098655369</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.19711704015001083</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.20017958656781026</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.19099487642346516</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.19115756128815992</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.194927019790643</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.1990836842494553</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.17677915263736912</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.17832154805790842</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.20196627041446299</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.20420436514651222</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.21804183155294812</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.21109615472408549</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.22521845988347569</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.23792504464686878</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.24662952506058267</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.27051804818259872</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.25588107871576904</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.24162092506380869</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.22302184779915188</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.22933377040718461</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.21404693759837279</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.22799427161567359</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.22468808249979369</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.220127639311086</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.226747153094775</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.21800847275213758</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.20059375103305549</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.2475043088090656</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.22572168498802303</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.21981087731364921</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.2411544961191785</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.21708482310817001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.26015143438792571</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.2360359644839512</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.23966079949374766</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.23137705678804735</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.22551463552374229</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.23229605726612712</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.24779832464053</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.26721570807822009</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.25461836686226141</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.23905736708498071</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.26460639386702595</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.25605115754822533</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.25405440096983389</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.25477627182212148</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.26860734522479979</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.27415280810729198</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.24740899920485457</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.26655348001019319</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.19280349319970505</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.23264059258887712</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.23872126072750549</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.2417729930763442</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.32925588692348656</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.33572779671563874</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.32747360548982513</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.23259186988429564</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.3207654381321467</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.23711109660695218</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.23295727793087412</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.21952361907268095</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.19678339719144078</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.23719639628480629</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.25566143761604432</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.25234681033405548</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.23933235584968848</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>0.25274537000716579</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>0.21562366154481041</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>0.20726206566041308</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>0.24258340669321948</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>0.22825500151552369</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>0.23233345436976066</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>0.22188168765221769</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>0.19669475120503532</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>0.20922876608740448</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>0.22925266080550011</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>0.21953127793421173</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>0.22747898431689034</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>0.22278364892332497</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>0.21283336297404618</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>0.1907683507635464</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>0.19956940336122853</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>0.20861005931305027</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>0.21297932327776106</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>0.23271620451402453</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>0.22990990918745349</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>0.31087560342189724</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>0.36937381367542499</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>0.38683421332614221</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>0.26792923323288259</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>0.21133417831738921</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>0.2861393980486151</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>0.2353757682748287</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>0.22700711494324038</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>0.21695557346972671</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>0.21476741815286249</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>0.21643597997307856</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>0.23686796323861711</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>0.24879994254342955</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>0.3087088459348506</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>0.32497943810569907</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>0.33352385664485207</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>0.27689590987228951</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>0.32168929288655862</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>0.25941027319997867</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>0.25481349483127763</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>0.237182643077095</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>0.22944943703159068</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>0.2331072692258539</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>0.24227160206331383</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>0.2415402575205193</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>0.2387660780463757</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>0.30361522813520575</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>0.30619983834260467</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>0.31383038469977792</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>0.28632931801075789</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>0.21518824644875972</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>0.23796649736254202</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>0.2373748508626787</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>0.2165486577130305</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>0.23083464331020001</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>0.24874778266763989</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>0.25926553717890422</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>0.25787629789979333</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>0.2695995853630756</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>0.2767637881969755</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>0.33629043845664996</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>0.30601781524140298</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>0.38001461000409464</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>0.28651523862206274</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>0.30121086009474546</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>0.36104941780176675</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>0.29239286479961429</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>0.31159105555144057</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>0.20877339173942155</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>0.22134091130492145</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>0.25863463575934914</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>0.2689586054235385</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>0.26561761685465068</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>0.24340133112275542</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>0.23220876219177009</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>0.24270989557700623</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>0.23266955352693966</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>0.20545022697438536</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>0.19745784538339411</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>0.2232228678013389</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>0.22920081131450779</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>0.23666209838604657</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>0.23493401180054729</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>0.28931524185721075</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>0.30067744455357398</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>0.30096889186105336</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>0.26815568351698382</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>0.1898638639373513</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>0.18721152450978734</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>0.19125173886074071</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>0.2027165573627604</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>0.20102748903817869</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>0.24087556849934863</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>0.23285914265449556</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>0.25290329060986283</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>0.23103595234963781</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>0.32568569809350828</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>0.32018426441268083</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>0.32325072638409497</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>0.31269278525963778</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>0.31252523305651869</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>0.31322974816439031</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>0.21439820407970422</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>0.22008304454508981</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>0.22929653291610749</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>0.22149554896498821</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>0.21808389124513347</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>0.23156991628061299</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>0.30623596795822161</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>0.3152095450860109</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>0.23097783103635541</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>0.24558722581033973</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>0.2413651356900241</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>0.23879699641340021</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>0.2298893892207442</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>0.22724639425320803</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>0.22081002478490352</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>0.21100641674059439</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>0.23642772498397327</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>0.24864224399875859</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>0.24533553563811916</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>0.2316359725243736</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>0.21715795879137098</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>0.2228216767848106</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>0.23821805130164742</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>0.25273135297132199</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>0.25113493014516519</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>0.26758028242230597</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>0.26050131970627782</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>0.25078759532634093</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>0.25854829540973312</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>0.22695859075174249</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>0.26177455586546056</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>0.25420339387945545</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>0.26301518140350538</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>0.2415875158207858</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>0.24721797914761773</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>0.22732010174071518</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>0.21121671191909777</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>0.2114962306420215</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>0.30411090601246743</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>0.29880786915541263</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>0.2826335546114791</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>0.29923033925885706</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>0.22327086092923459</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>0.20494780721621766</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>0.21892858760747153</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>0.2240194121446259</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>0.29117554566493986</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>0.28834673407342243</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>0.32223455886449309</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>0.29342984770785319</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>0.3991061285001794</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>0.3991061285001794</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>0.32538603634887459</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>0.28830849088860711</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>0.2718024504945688</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>0.20608758657552051</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>0.20529786833131192</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>0.22921472244756991</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>0.2187163330952081</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>0.21559178766022921</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>0.21673766211932041</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>0.22863310851295043</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>0.22147093011418581</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>0.24425431133065156</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>0.24522453846870915</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>0.255933671142694</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>0.24982967514752608</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>0.24226870442896759</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>0.26252185844035997</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>0.2265869596132431</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>0.24913131724518528</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>0.23711477185656754</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>0.23986078437252303</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>0.2187719660276333</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>0.22297918639170797</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>0.31448169198599574</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>0.31198162119912787</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>0.29641156922240008</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>0.22579006068825588</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>0.23437809213882921</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>0.22897882616491949</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>0.32464368288692969</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>0.31036845898562421</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>0.32846463298718942</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>0.39690535257017601</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>0.37961135189715223</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>0.37228972298967655</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>0.39051471442959523</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>0.33420346661874467</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>0.23527120891012834</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>0.24422900764517386</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>0.24417736592056236</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>0.26742744595648599</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>0.23896637707245533</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>0.20883639377501492</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>0.22048146344590372</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>0.20229840737523538</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>0.22864755302562589</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E1EE-40C1-86C4-6B374318444E}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="1523551663"/>
-        <c:axId val="1389686223"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1523551663"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2709,132 +219,18 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transacción</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Tiempo de transacción(ms)</a:t>
+            </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
-        </c:txPr>
-        <c:crossAx val="1389686223"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1389686223"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1523551663"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5437,6 +2833,2701 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="1388450015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Transacción</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs Uso de CPU(%)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Uso CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$H$6:$H$405</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="400"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$J$6:$J$405</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="400"/>
+                <c:pt idx="0">
+                  <c:v>0.85629425773090517</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85629425773090517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.59791501597520702</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.59791501597520702</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65082754136353094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58735283495083346</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.34109506128133227</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.36657335655799039</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.37421632688701079</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.35697051474025443</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.32281646696023458</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32574798162720464</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.3102838645136814</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.2916833727894656</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.27978141461815492</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.27351660642460318</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.25466017668685681</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.26543491311631473</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.25928220385827844</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.25834998801215581</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24821075974810461</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.24821075974810461</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25952750622261944</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.25805018881433062</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25517372251431697</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.248389465310839</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.24617842550436053</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.23308526458832549</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.23134520443701106</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.23079860988844508</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.23079860988844508</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.24083083026000271</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.2428231567675713</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.24621002864579608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.26322277329442151</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27647647292361227</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.27647647292361227</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.2423622367456795</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.27331968922008182</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.27358251640535508</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.25924640622150669</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.27055570755324604</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.28979297109759988</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.29165128046130723</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.28194272590581659</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.2724266366677417</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.28606616697649812</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.2503101010334125</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.25138737089412766</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.24462252843503779</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.23894470181019262</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.24851691898700673</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.25010479918668627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.25338142323339791</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.24906845832969998</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.24437849692989042</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.2441502397067935</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.2476132910858925</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.25405112853663731</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.26036220428803419</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.26036220428803419</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.25213409994496783</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.23284151419687832</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.23856565317578654</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.2357465067790975</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.23922027903596438</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.23693800488842062</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.25278169072310508</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.25427447104678919</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.29465809348581234</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.30673252241912058</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.31072510132631248</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.30695005807311437</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.28024829275181146</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.28223910814419928</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.32752660098465003</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.33217544332909965</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.29928182133179926</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.30122227739256252</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.30373193854887115</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.31482117581478758</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.23726299139188339</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.28760309001118561</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.3119627413746891</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.31493466509360218</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.28909386998759556</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.28778267716559314</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.30017027374504279</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.21177924727341729</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.23043080195157217</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.23963245639900485</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.22720224797259028</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.22717830230792935</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.22872432498214387</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.23607069051665308</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.2349688647634437</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.23162227719199044</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.24647128637143964</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.25359921112069422</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.24387041480554422</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.23635988793051252</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.27059921418951555</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.26441094949443306</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.25757919703254584</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.25525055109171779</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.25873893781707236</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.25045390245017196</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.24221120003853477</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.21727986912235348</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.21100871519219161</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.23368576785636372</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.22936453368824289</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.24417926546800672</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.24429824251234852</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.24915195039894494</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.2608633783818009</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.25542034902017619</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.24297664661165785</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.26844238729819553</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.23321023215549996</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.22685090510646347</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.2492102799656665</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.2448034517483125</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.24837343445467552</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.2796879695220601</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.27755416474717681</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.26802087337938113</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.26206650927729613</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.2490680959763194</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.22917394306277661</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.20371676424852952</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.22332028962005182</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.26481782024342154</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.32051003031074304</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.3189486830377416</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.32334333145114647</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.32193991643528119</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.318139010797022</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.32754180475657185</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.25359807296483139</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.262311211704362</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.25299260711536808</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.25006269688116312</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.25875090792435995</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.25151788662432578</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.32326113183810912</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.3051800028305473</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.30661973614296967</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.34104221947854824</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.35224988290262688</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.35224988290262688</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.2884170526091725</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.26360640039053895</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.26830702558743413</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.24849238974639667</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.27200592021215575</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.25905296523982435</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.26260830835328353</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.2571230245868158</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.27213125261682791</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.32550922049220127</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.31912453067175978</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.3245375567028016</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.31963655348075853</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.31098408936778915</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.3075933089757335</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.23772232650194261</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.2317836517277935</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.22940973545804211</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.2444523129852133</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.23572323951089111</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.22953881228824535</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.24762829277967494</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.25351713666194131</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.24547504486623645</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.24361483954356891</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.23544755903038464</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.2290699150470854</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.22385857409265369</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.2476450612360295</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.25186361648133859</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.33429201851986989</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.33258528635359802</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.31923435754670104</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.31967577384263696</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.3210129196101168</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.31560024022575001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.22881321360649409</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.21975066243562671</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.22951527333939684</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.22928288070037137</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.25675357825689377</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.2709038734041348</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.27984638774257597</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.27132950430734448</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.26049841912442229</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.23253645161585182</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.22226004878099295</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.22985164679393835</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.23373804500655207</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.2390349863364471</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.23287402280086478</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.22940028710187529</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.2639327446921606</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.26349290050505725</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.26101685147389353</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.25199696171270458</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.24504167892185863</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.22999992648053758</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.22757971430578861</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.20241093299788082</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.21292573408453999</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.23186094769750143</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.25719017176127823</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.2681111789092791</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.2570133120398912</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.24870876085475449</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.2618217280961655</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.25581093085340689</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.2172913257909973</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.21192379130502309</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.22181073400188361</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.23356864184769524</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.24141374006444644</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.24613367822244861</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.24905434675312652</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.22836712474395945</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.2323820033865486</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.23297766996221292</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.23048087128637651</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.23810390724471411</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.23846954344608523</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.25175824546654574</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.25747827371142806</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.32710916504172999</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.34578610152141698</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.38766837427161804</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.38766837427161804</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.39170496144678318</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.31787427926905187</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.30186571137746887</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.2724560410624236</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.25858195255560679</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.23938510499165011</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.24238616273963579</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.2304225514328179</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.23370101429701015</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.22002847700573294</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.22002847700573294</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.22811333492460859</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.21408986274091468</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.24029182333886509</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.24029182333886509</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.255162875718423</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.27241253762906903</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.26788251597192642</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.25366556878975677</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.24901491568029199</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.25878160385846533</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.22048700118765588</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.21923886412017729</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.22159375778620918</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.29920676772421434</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.29396666105983849</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.2981436952138477</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.29713630747138475</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.31838208054516459</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.31792797395741718</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.23716973972553668</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.24871279835331842</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.23741454848374255</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.21877041635503341</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.21135194860646669</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.21380176572013379</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.25512505691972914</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.2501721748672936</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.26671155681115022</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.27437171265310711</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.2687309344194973</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.26563439044057702</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.2315318266985128</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.23255194227380088</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.24705072755022831</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.25982654376343939</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.28317845200862857</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.29257892760918636</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.29223759969128443</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.28971096078340358</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.29131267628451069</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.2796593528916127</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.26717770052039169</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.26303802470432186</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.23491707536341813</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.23088604911833932</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.23358093270354638</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.24743190433060569</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.22630723457226259</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.23033703879280448</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.23023216018327108</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.23696752905519602</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.23556176227717793</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.23662534343525735</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.24729078356176973</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.2615279362955914</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.25862573490118385</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.2821422980424253</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.28505043705076288</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.25714859822870362</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.26154288855831603</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.2487804815977511</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.2450551865466139</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.20916259736032863</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.20970390103168959</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.2090676041215026</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.21659999419033787</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.21659999419033787</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.2199191837906887</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.22454530212108684</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.23317156495837177</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.24434950863216451</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.24133970887225861</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.24174918255391351</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.2401919275224689</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.23974195002954196</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.24221148539064793</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.24669086814362221</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.2411746752777707</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.24011434979598578</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.24346430872299113</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.24483556692106742</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.2455997572825154</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.2463207967483047</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.24433294127012861</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.25454669175257444</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.26396484409275994</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.26215273097856673</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.26283158107896809</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.27510012233179132</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.27845395537093159</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.26407801238596529</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.25061572439191648</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>0.24065732308622759</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>0.2455308671794402</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>0.24287643668873998</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>0.24816617233301497</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>0.24416561784993895</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>0.23863695156970746</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>0.2292275967935398</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>0.20168269204766889</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>0.1955599136559652</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>0.24773077890709311</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>0.26761564330855636</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>0.26115387213942926</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>0.26200531506579577</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>0.27038253709987314</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>0.26590140475087526</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>0.2246940242481518</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>0.24290025962059261</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>0.25687446158353361</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>0.27945875462478859</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>0.2855679252990061</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>0.29106198242898501</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>0.31536620628885031</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>0.32032917752398971</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>0.3324973649098481</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>0.32169780101413337</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>0.28125163100925854</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>0.25895836341297523</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>0.24241773091833441</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>0.24670246754008993</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>0.25640000574635158</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>0.24935691861829651</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>0.24316326881229292</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>0.22521159682325759</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>0.22895950094240822</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.23150013392649921</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.23961924335027021</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.23974485626663655</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.2642372102671276</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.26682932482578414</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.26682932482578414</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.26919641385832299</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.26792609547482127</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.24305276797315942</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.24334583954255112</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.27542594358161759</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.28622907703417655</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.28593247841201658</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.28593247841201658</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.28519616874566567</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.23922529314214022</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.23393647298133602</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.23745851660435974</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.2674767430300925</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.26048400030663049</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.2592103565009572</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.25855067615339949</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.25935399840533374</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.2565167584216379</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.25781338944801385</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-11DD-41C3-AFC2-36579806D64E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1786536239"/>
+        <c:axId val="1781459071"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1786536239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1781459071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1781459071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1786536239"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6602,22 +6693,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>11430</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23606194-B77E-4E6B-8193-108DFB4A7B06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AE01B8-6BA5-41DB-B65E-4F23318810A8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6639,29 +6730,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>754380</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>41910</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>560070</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100965</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1AE01B8-6BA5-41DB-B65E-4F23318810A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F25BAA1-EDD8-4A9F-A689-12DB17CE42F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -11399,8 +11488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED8676D-ECD8-440D-990A-F4E5DE7A3C65}">
   <dimension ref="A1:R4001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A4001" sqref="A1:S4001"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.9453125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11408,6 +11497,10 @@
     <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3671875" customWidth="1"/>
+    <col min="15" max="15" width="19.15625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.41796875" customWidth="1"/>
+    <col min="18" max="18" width="12.15625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
@@ -11569,16 +11662,16 @@
       <c r="N6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
@@ -11618,22 +11711,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O7" s="6">
         <f>AVERAGE(I6:I405)</f>
         <v>275.28875000000016</v>
       </c>
-      <c r="P7" s="2">
+      <c r="P7" s="7">
         <f t="shared" ref="P7:R7" si="4">AVERAGE(J6:J405)</f>
         <v>0.26702377051589188</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q7" s="6">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="R7" s="1">
+      <c r="R7" s="6">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
@@ -11674,22 +11767,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="1">
+      <c r="O8" s="6">
         <f>MEDIAN(I6:I405)</f>
         <v>261.7</v>
       </c>
-      <c r="P8" s="2">
+      <c r="P8" s="7">
         <f t="shared" ref="P8:R8" si="5">MEDIAN(J6:J405)</f>
         <v>0.25355760481338635</v>
       </c>
-      <c r="Q8" s="1">
+      <c r="Q8" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="R8" s="1">
+      <c r="R8" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
@@ -11730,22 +11823,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="O9" s="1">
+      <c r="O9" s="6">
         <f>_xlfn.MODE.SNGL(I6:I405)</f>
         <v>279.60000000000002</v>
       </c>
-      <c r="P9" s="2">
+      <c r="P9" s="7">
         <f t="shared" ref="P9:R9" si="6">_xlfn.MODE.SNGL(J6:J405)</f>
         <v>0.85629425773090517</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="Q9" s="6">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="R9" s="1">
+      <c r="R9" s="6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
@@ -11786,22 +11879,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N10" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="1">
+      <c r="O10" s="6">
         <f>_xlfn.VAR.S(I6:I405)</f>
         <v>31981.3295723683</v>
       </c>
-      <c r="P10" s="2">
+      <c r="P10" s="7">
         <f t="shared" ref="P10:R10" si="7">_xlfn.VAR.S(J6:J405)</f>
         <v>4.0784419682771186E-3</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="R10" s="1">
+      <c r="R10" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
@@ -11842,22 +11935,22 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N11" t="s">
+      <c r="N11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11" s="6">
         <f>O10^0.5</f>
         <v>178.83324515416115</v>
       </c>
-      <c r="P11" s="2">
+      <c r="P11" s="7">
         <f t="shared" ref="P11:R11" si="8">P10^0.5</f>
         <v>6.3862680559753512E-2</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="Q11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R11" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
